--- a/spark/experiments/results-sql-g2.3.csv/g2.3-3t-n2-c3-m29-default-memory-fraction-no-cache.xlsx
+++ b/spark/experiments/results-sql-g2.3.csv/g2.3-3t-n2-c3-m29-default-memory-fraction-no-cache.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddya\OneDrive\Documents\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.3.csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.3.csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DF1EAA76-BFE8-4CDB-B668-92FFB1279FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C81A276-9540-4394-B8AD-FE32CAF3A517}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="24000" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="24000" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="k" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -189,12 +188,15 @@
   </si>
   <si>
     <t>percentile95-warmup (s)</t>
+  </si>
+  <si>
+    <t>too high deviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -705,24 +707,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,9 +740,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -752,6 +754,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -942,7 +945,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F758-4147-95DB-5F788C689743}"/>
             </c:ext>
@@ -956,11 +959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1669882767"/>
-        <c:axId val="1666879439"/>
+        <c:axId val="1489755392"/>
+        <c:axId val="1489755936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1669882767"/>
+        <c:axId val="1489755392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,12 +1019,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666879439"/>
+        <c:crossAx val="1489755936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1666879439"/>
+        <c:axId val="1489755936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1669882767"/>
+        <c:crossAx val="1489755392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1092,14 +1095,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1710,7 +1713,7 @@
         <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9A739F-1CDA-4F13-A0F7-262731B5732F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE9A739F-1CDA-4F13-A0F7-262731B5732F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,19 +2030,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2193,7 +2197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2267,7 +2271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2341,7 +2345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2415,7 +2419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2563,7 +2567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2637,7 +2641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2711,7 +2715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3007,7 +3011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3081,7 +3085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3229,7 +3233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3377,7 +3381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3451,7 +3455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3525,7 +3529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3599,7 +3603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3747,7 +3751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3821,7 +3825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3895,7 +3899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3969,7 +3973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4043,7 +4047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4117,7 +4121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4191,7 +4195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -4265,7 +4269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4413,7 +4417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -4487,7 +4491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4561,7 +4565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -4709,7 +4713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -4783,7 +4787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4857,7 +4861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -5005,7 +5009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5079,7 +5083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -5098,7 +5102,7 @@
         <v>172467155.25</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -5116,7 +5120,7 @@
         <v>37057785.174999997</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -5135,7 +5139,7 @@
         <v>63604197.850000001</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -5153,7 +5157,7 @@
         <v>50698008.32</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -5175,7 +5179,7 @@
         <v>4721427062</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -5197,7 +5201,7 @@
         <v>78690.451033333331</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5211,7 +5215,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5220,13 +5224,16 @@
         <v>32.871984058549998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="C50">
         <f>C44/1000/1000/1000</f>
         <v>41.183801073250002</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
